--- a/excel/mesage_details_MeasurementSeriesNotification.xlsx
+++ b/excel/mesage_details_MeasurementSeriesNotification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
   <si>
     <t>Default Values</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>XML ELEMENT PATH</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
   </si>
   <si>
     <t>values file</t>
@@ -786,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="107" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,8 +812,9 @@
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>124</v>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C11" si="0">B2</f>
+        <v>not_mapped</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +825,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C11" si="0">B3</f>
+        <f t="shared" si="0"/>
         <v>not_mapped</v>
       </c>
     </row>
@@ -1440,7 +1438,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>116</v>
